--- a/localstack/serco_sample.xlsx
+++ b/localstack/serco_sample.xlsx
@@ -596,10 +596,10 @@
     <t xml:space="preserve">Price</t>
   </si>
   <si>
-    <t xml:space="preserve">Bedford County Court</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMP Bedford</t>
+    <t xml:space="preserve">Freds County Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMP Fred</t>
   </si>
   <si>
     <t xml:space="preserve">Old Journeys</t>
@@ -1181,7 +1181,7 @@
     <numFmt numFmtId="165" formatCode="&quot;JID_&quot;00000"/>
     <numFmt numFmtId="166" formatCode="\£#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1210,6 +1210,13 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1391,7 +1398,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1413,6 +1420,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1448,19 +1459,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1564,7 +1575,7 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1596,33 +1607,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11467,13 +11478,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11481,13 +11492,13 @@
       <c r="A2" s="1" t="n">
         <v>25623</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -11495,13 +11506,13 @@
       <c r="A3" s="1" t="n">
         <v>25651</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11509,13 +11520,13 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11523,111 +11534,111 @@
       <c r="A5" s="1" t="n">
         <v>25650</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="15" t="n">
         <v>25658</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="15" t="n">
         <v>25656</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="15" t="n">
         <v>25655</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="A9" s="15" t="n">
         <v>25646</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
+      <c r="A10" s="15" t="n">
         <v>25649</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+      <c r="A11" s="15" t="n">
         <v>25648</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
+      <c r="A12" s="15" t="n">
         <v>25654</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11635,27 +11646,27 @@
       <c r="A13" s="1" t="n">
         <v>25592</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="n">
+      <c r="A14" s="15" t="n">
         <v>25644</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -11663,181 +11674,181 @@
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="n">
+      <c r="A16" s="15" t="n">
         <v>14776</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="n">
+      <c r="A17" s="15" t="n">
         <v>14772</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="n">
+      <c r="A18" s="15" t="n">
         <v>14786</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="n">
+      <c r="A19" s="15" t="n">
         <v>25652</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="n">
+      <c r="A20" s="15" t="n">
         <v>25640</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="n">
+      <c r="A21" s="15" t="n">
         <v>25638</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="n">
+      <c r="A22" s="15" t="n">
         <v>25639</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="n">
+      <c r="A23" s="15" t="n">
         <v>25657</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="n">
+      <c r="A24" s="15" t="n">
         <v>25585</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="n">
+      <c r="A25" s="15" t="n">
         <v>25641</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="n">
+      <c r="A26" s="15" t="n">
         <v>25642</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="n">
+      <c r="A27" s="15" t="n">
         <v>15449</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -12621,7 +12632,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="22" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="0" t="s">
